--- a/medicine/Soins infirmiers et profession infirmière/1911_en_santé_et_médecine/1911_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1911_en_santé_et_médecine/1911_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1911_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1911_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1911 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1911_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1911_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,20 +523,22 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>9 mai : fondation par Ernest Jones à Baltimore de l'Association américaine de psychanalyse (American Psychoanalytic Association).
 18 mai : le compositeur Gustav Mahler meurt d'une endocardite sur une insuffisance cardiaque.
-12 octobre : sortie du film Monsieur le docteur Charley est un grand chirurgien, court-métrage burlesque de Julius Szomogyi[1].
-22-25 octobre : 12e congrès français de médecine, à Lyon, sous la présidence de Joseph Teissier[2].
+12 octobre : sortie du film Monsieur le docteur Charley est un grand chirurgien, court-métrage burlesque de Julius Szomogyi.
+22-25 octobre : 12e congrès français de médecine, à Lyon, sous la présidence de Joseph Teissier.
 Casimir Funk isole la vitamine B1 capable de combattre le béribéri.
 Thomas Hunt Morgan suggère que les gènes sont rangés en ligne dans les chromosomes.
-Dans un ouvrage intitulé Plastic and Cosmetic Surgery[3], Frédéric Kolle (1871-1929), chirurgien américain d'origine allemande, pionnier de la chirurgie plastique, publie les premières photos prises avant et après l'intervention d'un patient opéré pour des raisons esthétiques[4].
-Fondation de la revue Æsculape [5].
+Dans un ouvrage intitulé Plastic and Cosmetic Surgery, Frédéric Kolle (1871-1929), chirurgien américain d'origine allemande, pionnier de la chirurgie plastique, publie les premières photos prises avant et après l'intervention d'un patient opéré pour des raisons esthétiques.
+Fondation de la revue Æsculape .
 National Insurance Act, loi sur l'assurance maladie souvent considérée comme fondatrice de la Sécurité sociale au Royaume-Uni.
-Fondation de l'entreprise pharmaceutique suédoise Pharmacia[6] .
-Le premier congrès de médecine légale de langue française se tient à Paris[7].
-Fondation à Genève du Syndicat des médecins chirurgiens-dentistes, devenu Association des médecins-dentistes du canton de Genève, puis, par fusion, Association des médecins-dentistes de Genève (AMDG)[8].
+Fondation de l'entreprise pharmaceutique suédoise Pharmacia .
+Le premier congrès de médecine légale de langue française se tient à Paris.
+Fondation à Genève du Syndicat des médecins chirurgiens-dentistes, devenu Association des médecins-dentistes du canton de Genève, puis, par fusion, Association des médecins-dentistes de Genève (AMDG).
 Mettant fin à l'entreprise familiale, Jean X Burchart vend la pharmacie de l'Hôtel-de-Ville de Tallin, en Estonie, plus ancienne officine d'Europe, créée au XVIe siècle par un de ses ancêtres.</t>
         </is>
       </c>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1911_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1911_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Nobel de médecine : Allvar Gullstrand, « pour ses travaux sur les dioptries de l’œil[9]. »</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Nobel de médecine : Allvar Gullstrand, « pour ses travaux sur les dioptries de l’œil. »</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1911_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1911_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,18 +599,20 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>14 janvier : Roger O'Meyer (mort en 1987), dentiste français[10].
-15 janvier : Jean Talairach (mort en 2007), psychiatre et neurochirurgien français, connu pour ses contributions à la cartographie du cerveau[11],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>14 janvier : Roger O'Meyer (mort en 1987), dentiste français.
+15 janvier : Jean Talairach (mort en 2007), psychiatre et neurochirurgien français, connu pour ses contributions à la cartographie du cerveau,.
 23 janvier : Georges Canetti (mort en 1971), médecin et biologiste français, pionnier du traitement de la tuberculose par association d'antibiotiques, découvreur d'une mycobactérie qui porte son nom : Mycobacterium canettii.
 16 mars : Joseph Mengele (mort en 1979), médecin et anthropologue allemand, officier SS, criminel de guerre.
 15 mai : Herta Oberheuser (morte en 1978), médecin allemande nazie, condamnée pour crimes de guerre et crimes contre l'humanité.
-27 mai : Charles Mentzer (mort en 1967), chimiste et pharmacologiste français[13].
-10 septembre : Louis Christiaens (mort en 1965), médecin français[14].
-25 septembre : Daniel Morel-Fatio (mort en 1988), chirurgien des hôpitaux de Paris[15].
+27 mai : Charles Mentzer (mort en 1967), chimiste et pharmacologiste français.
+10 septembre : Louis Christiaens (mort en 1965), médecin français.
+25 septembre : Daniel Morel-Fatio (mort en 1988), chirurgien des hôpitaux de Paris.
 17 octobre : Raymond Latarjet (mort en 1998), biologiste et radiobiologiste français, connu pour ses recherches sur le cycle intracellulaire des virus.
-31 octobre : Marcel Raynaud (mort en 1974), médecin, biologiste et immunologiste français[16].
+31 octobre : Marcel Raynaud (mort en 1974), médecin, biologiste et immunologiste français.
 Félix Martí Ibáñez (mort en 1972), psychiatre et homme politique espagnol.
 Paulette Mercier (morte en 2006), pharmacienne, médecin et résistante française.
 Haruchika Noguchi (mort en 1976), concepteur japonais du seitai, médecine non conventionnelle.
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1911_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1911_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,24 +645,26 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>29 janvier : Claude Martin (né en 1843), dentiste français.
 3 mars : Alexis Chavanne (né en 1824), homme politique français, médecin du Sénat de 1889 à 1900.
 21 mars : Saturnin Arloing (né en 1846), vétérinaire français, connu pour ses travaux en anatomie et physiologie.
 14 avril : le président Schreber (né en 1842), magistrat allemand connu pour son ouvrage autobiographique : Mémoires d'un névropathe, dans lequel il décrit les délires provoqués par la psychose dont il souffrait.
 30 avril : Arthur Fallot (né en 1850), médecin, français spécialiste de la maladie bleue.
-17 juin : Aimé Guinard (né en 1856), chirurgien français[18].
-Juillet : Charles Nélaton (né en 1851), chirurgien français[19].
-16 août : Georges Dieulafoy (né en 1839), médecin français, connu pour ses travaux en pathologie digestive et en particulier sur la sémiologie de l’appendicite[20].
+17 juin : Aimé Guinard (né en 1856), chirurgien français.
+Juillet : Charles Nélaton (né en 1851), chirurgien français.
+16 août : Georges Dieulafoy (né en 1839), médecin français, connu pour ses travaux en pathologie digestive et en particulier sur la sémiologie de l’appendicite.
 12 septembre : Christian Leopold (né en 1846), gynécologue allemand, auteur des « manœuvres de Leopold ».
 18 octobre : Alfred Binet (né en 1857), psychologue et pédagogue français, concepteur des premiers tests psychométriques.
-25 novembre : Paul Lafargue (né en 1842), médecin[21], essayiste et homme politique français.
+25 novembre : Paul Lafargue (né en 1842), médecin, essayiste et homme politique français.
 20 décembre : Paul Topinard (né en 1830), médecin et anthropologue français.
 22 décembre : Odilon Lannelongue (né en 1840), chirurgien et homme politique français.
 Charles-Édouard Hocquard (né en 1853), médecin militaire, photographe et explorateur français, connu pour ses photographies d'Indochine et de Madagascar.
 Clovis Thorel (né en 1833), médecin, botaniste et explorateur français.
-François Thioly (né en 1831), chirurgien-dentiste, homme politique, archéologue et alpiniste suisse d'origine française[22].</t>
+François Thioly (né en 1831), chirurgien-dentiste, homme politique, archéologue et alpiniste suisse d'origine française.</t>
         </is>
       </c>
     </row>
